--- a/data_output/prism_passive/all_passive_Stiffness at subject max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at subject max ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.9563692556719356</v>
+        <v>1.9563692476852219</v>
       </c>
       <c r="C2">
-        <v>2.9378653641040038</v>
+        <v>2.9378652811295058</v>
       </c>
       <c r="D2">
-        <v>1.3108664854702106</v>
+        <v>1.3108664691964944</v>
       </c>
       <c r="E2">
-        <v>0.82409491701327764</v>
+        <v>0.82409491758960307</v>
       </c>
       <c r="F2">
-        <v>2.2185162164004111</v>
+        <v>2.2185161819459029</v>
       </c>
       <c r="G2">
-        <v>1.7541009468042004</v>
+        <v>1.7541009030961756</v>
       </c>
       <c r="H2">
-        <v>3.6504459863210679</v>
+        <v>3.6504459386699111</v>
       </c>
       <c r="I2">
-        <v>1.4994174274501346</v>
+        <v>1.4994174060580114</v>
       </c>
       <c r="J2">
-        <v>2.980182886470625</v>
+        <v>2.9801828496575311</v>
       </c>
       <c r="K2">
-        <v>2.1058411841613234</v>
+        <v>2.105841153870406</v>
       </c>
       <c r="L2">
-        <v>1.3743100900276863</v>
+        <v>1.3743100596063926</v>
       </c>
       <c r="M2">
-        <v>2.7195085657365832</v>
+        <v>2.7195085121650875</v>
       </c>
       <c r="N2">
-        <v>2.4077720002446115</v>
+        <v>2.4077719577691417</v>
       </c>
       <c r="O2">
-        <v>0.41208815844203045</v>
+        <v>0.41208814827032791</v>
       </c>
       <c r="P2">
-        <v>4.927274969380786</v>
+        <v>4.9272748958613892</v>
       </c>
       <c r="Q2">
-        <v>0.87385390547466346</v>
+        <v>0.87385389516921397</v>
       </c>
       <c r="R2">
-        <v>1.7440113330352531</v>
+        <v>1.7440113129561112</v>
       </c>
       <c r="S2">
-        <v>3.6872454812185791</v>
+        <v>3.6872454439764537</v>
       </c>
       <c r="T2">
-        <v>0.86426548119373214</v>
+        <v>0.86426545422287249</v>
       </c>
       <c r="U2">
-        <v>1.6410325945323139</v>
+        <v>1.6410325635375704</v>
       </c>
       <c r="V2">
-        <v>2.157998303436325</v>
+        <v>2.1579982738790786</v>
       </c>
       <c r="W2">
-        <v>1.5128490254130598</v>
+        <v>1.5128489979782631</v>
       </c>
       <c r="X2">
-        <v>1.2780838664562568</v>
+        <v>1.2780838312643907</v>
       </c>
       <c r="Y2">
-        <v>1.3635420997242851</v>
+        <v>1.3635420720950004</v>
       </c>
       <c r="Z2">
-        <v>0.41852611279688556</v>
+        <v>0.41852610724384937</v>
       </c>
       <c r="AA2">
-        <v>2.0658277997496053</v>
+        <v>2.0658277558739857</v>
       </c>
       <c r="AB2">
-        <v>1.4374507360455118</v>
+        <v>1.4374506903465372</v>
       </c>
       <c r="AC2">
-        <v>1.1791585460906693</v>
+        <v>1.1791585206400239</v>
       </c>
       <c r="AD2">
-        <v>0.55633286486578992</v>
+        <v>0.55633284803681116</v>
       </c>
       <c r="AE2">
-        <v>1.2069514188585226</v>
+        <v>1.206951405700784</v>
       </c>
       <c r="AF2">
-        <v>2.9067368578868811</v>
+        <v>2.9067368288307303</v>
       </c>
       <c r="AG2">
-        <v>1.7865943128037434</v>
+        <v>1.7865942500607175</v>
       </c>
       <c r="AH2">
-        <v>1.1541047909897242</v>
+        <v>1.1541047644477864</v>
       </c>
       <c r="AI2">
-        <v>2.4914547366700042</v>
+        <v>2.4914546901954613</v>
       </c>
       <c r="AJ2">
-        <v>2.4818123962101524</v>
+        <v>2.4818123680824469</v>
       </c>
       <c r="AK2">
-        <v>1.0366301516548115</v>
+        <v>1.0366301311630228</v>
       </c>
       <c r="AL2">
-        <v>1.0747319721506514</v>
+        <v>1.0747319567166138</v>
       </c>
       <c r="AM2">
-        <v>1.8522680784500389</v>
+        <v>1.8522680455555336</v>
       </c>
       <c r="AN2">
-        <v>0.35693943579792187</v>
+        <v>0.35693943189799809</v>
       </c>
       <c r="AO2">
-        <v>1.6516803108609763</v>
+        <v>1.6516802743921213</v>
       </c>
       <c r="AP2">
-        <v>0.73966680637382565</v>
+        <v>0.73966680880394176</v>
       </c>
       <c r="AQ2">
-        <v>0.70536833484531658</v>
+        <v>0.70536832963273866</v>
       </c>
       <c r="AR2">
-        <v>3.4597730411775798</v>
+        <v>3.4597729836249607</v>
       </c>
       <c r="AS2">
-        <v>1.6149460182801674</v>
+        <v>1.6149460021691966</v>
       </c>
       <c r="AT2">
-        <v>0.50411046151572247</v>
+        <v>0.50411045354009243</v>
       </c>
       <c r="AU2">
-        <v>2.3465319589727964</v>
+        <v>2.3465319268998481</v>
       </c>
       <c r="AV2">
-        <v>0.73170600249240225</v>
+        <v>0.73170598635936002</v>
       </c>
       <c r="AW2">
-        <v>0.65938970874268721</v>
+        <v>0.65938969592221419</v>
       </c>
       <c r="AX2">
-        <v>0.70762920442688126</v>
+        <v>0.70762919557818971</v>
       </c>
       <c r="AY2">
-        <v>0.53479213202608822</v>
+        <v>0.53479212379778041</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.6608627567978962</v>
+        <v>3.6608626327832647</v>
       </c>
       <c r="C3">
-        <v>1.3443186208884774</v>
+        <v>1.3443185814035024</v>
       </c>
       <c r="D3">
-        <v>1.5668455821892184</v>
+        <v>1.566845579697248</v>
       </c>
       <c r="E3">
-        <v>3.5849219320681129</v>
+        <v>3.5849219191616037</v>
       </c>
       <c r="F3">
-        <v>0.63192116737047566</v>
+        <v>0.6319211492905632</v>
       </c>
       <c r="G3">
-        <v>1.9466059480522506</v>
+        <v>1.9466059174297226</v>
       </c>
       <c r="H3">
-        <v>3.9422131333933024</v>
+        <v>3.9422130848253345</v>
       </c>
       <c r="I3">
-        <v>0.86693877862233848</v>
+        <v>0.86693876436178785</v>
       </c>
       <c r="J3">
-        <v>2.9115407257648043</v>
+        <v>2.9115407116094576</v>
       </c>
       <c r="K3">
-        <v>1.8371526567974548</v>
+        <v>1.8371526445148127</v>
       </c>
       <c r="L3">
-        <v>2.1434933477452836</v>
+        <v>2.1434933235245106</v>
       </c>
       <c r="M3">
-        <v>1.6310648201693572</v>
+        <v>1.6313159783833944</v>
       </c>
       <c r="N3">
-        <v>2.1199251681721707</v>
+        <v>2.1199251419547886</v>
       </c>
       <c r="O3">
-        <v>0.791072099495161</v>
+        <v>0.79107209790660904</v>
       </c>
       <c r="P3">
-        <v>4.7876953067021821</v>
+        <v>4.7876952071691239</v>
       </c>
       <c r="Q3">
-        <v>1.4532870581965396</v>
+        <v>1.4532870406428116</v>
       </c>
       <c r="R3">
-        <v>0.79100552041675942</v>
+        <v>0.79100551374228878</v>
       </c>
       <c r="S3">
-        <v>3.077327874116484</v>
+        <v>3.0773278438167972</v>
       </c>
       <c r="T3">
-        <v>1.4240449943852036</v>
+        <v>1.424044984475942</v>
       </c>
       <c r="U3">
-        <v>1.4673571351260626</v>
+        <v>1.4673571292198697</v>
       </c>
       <c r="V3">
-        <v>3.5157224130373055</v>
+        <v>3.5157224014624955</v>
       </c>
       <c r="W3">
-        <v>1.7862119434062067</v>
+        <v>1.7862119395919995</v>
       </c>
       <c r="X3">
-        <v>1.9808726771518703</v>
+        <v>1.9808726340668774</v>
       </c>
       <c r="Y3">
-        <v>1.2901268906870267</v>
+        <v>1.2901268842016218</v>
       </c>
       <c r="Z3">
-        <v>0.59190597929918654</v>
+        <v>0.59190597276374712</v>
       </c>
       <c r="AA3">
-        <v>2.43914835883387</v>
+        <v>2.439148292254139</v>
       </c>
       <c r="AB3">
-        <v>1.2788868340248278</v>
+        <v>1.2788867943291995</v>
       </c>
       <c r="AC3">
-        <v>0.6623423487628437</v>
+        <v>0.66234233364426265</v>
       </c>
       <c r="AD3">
-        <v>1.4790805509406195</v>
+        <v>1.4790805175815922</v>
       </c>
       <c r="AE3">
-        <v>0.78581052397701401</v>
+        <v>0.78581050335388858</v>
       </c>
       <c r="AF3">
-        <v>1.9767209536038053</v>
+        <v>1.9767209162464505</v>
       </c>
       <c r="AG3">
-        <v>1.8650429446947743</v>
+        <v>1.8650429113773335</v>
       </c>
       <c r="AH3">
-        <v>0.80254573504662463</v>
+        <v>0.80254572713289341</v>
       </c>
       <c r="AI3">
-        <v>1.4537871626429131</v>
+        <v>1.4537871478825641</v>
       </c>
       <c r="AJ3">
-        <v>2.0061282527203117</v>
+        <v>2.0061282328481553</v>
       </c>
       <c r="AK3">
-        <v>0.94359776682105823</v>
+        <v>0.94359775062400253</v>
       </c>
       <c r="AL3">
-        <v>1.473505036715328</v>
+        <v>1.4735050113504351</v>
       </c>
       <c r="AM3">
-        <v>2.3385445227666715</v>
+        <v>2.3385444752825162</v>
       </c>
       <c r="AN3">
-        <v>0.57970671722815537</v>
+        <v>0.57970670772107125</v>
       </c>
       <c r="AO3">
-        <v>2.4890630592775747</v>
+        <v>2.4890630110324414</v>
       </c>
       <c r="AP3">
-        <v>0.87047903899865664</v>
+        <v>0.87047902473214844</v>
       </c>
       <c r="AQ3">
-        <v>0.74081148395897611</v>
+        <v>0.74081147736967623</v>
       </c>
       <c r="AR3">
-        <v>1.7340021495351259</v>
+        <v>1.7340021342212162</v>
       </c>
       <c r="AS3">
-        <v>0.98471872643927238</v>
+        <v>0.98471870726516642</v>
       </c>
       <c r="AT3">
-        <v>0.56365631711215947</v>
+        <v>0.56365630749075235</v>
       </c>
       <c r="AU3">
-        <v>1.7227131451041071</v>
+        <v>1.7227131334336581</v>
       </c>
       <c r="AV3">
-        <v>0.69823166925656133</v>
+        <v>0.69823164305224183</v>
       </c>
       <c r="AW3">
-        <v>0.64713617852196237</v>
+        <v>0.64713616568164567</v>
       </c>
       <c r="AX3">
-        <v>1.0223554302800617</v>
+        <v>1.0223554216249882</v>
       </c>
       <c r="AY3">
-        <v>1.365427289771749</v>
+        <v>1.3654272698749295</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_Stiffness at subject max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at subject max ROM.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1.9563692476852219</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.9378652811295058</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.3108664691964944</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.82409491758960307</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.2185161819459029</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.7541009030961756</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.6504459386699111</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.4994174060580114</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.9801828496575311</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.105841153870406</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.3743100596063926</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2.7195085121650875</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.4077719577691417</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.41208814827032791</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4.9272748958613892</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.87385389516921397</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.7440113129561112</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>3.6872454439764537</v>
@@ -588,55 +477,55 @@
         <v>0.41852610724384937</v>
       </c>
       <c r="AA2">
-        <v>2.0658277558739857</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.4374506903465372</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.1791585206400239</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.55633284803681116</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.206951405700784</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.9067368288307303</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.7865942500607175</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.1541047644477864</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.4914546901954613</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.4818123680824469</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.0366301311630228</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.0747319567166138</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.8522680455555336</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.35693943189799809</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.6516802743921213</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.73966680880394176</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.70536832963273866</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>3.4597729836249607</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>3.6608626327832647</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.3443185814035024</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.566845579697248</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.5849219191616037</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6319211492905632</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.9466059174297226</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.9422130848253345</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.86693876436178785</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.9115407116094576</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.8371526445148127</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.1434933235245106</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.6313159783833944</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.1199251419547886</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.79107209790660904</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>4.7876952071691239</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.4532870406428116</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.79100551374228878</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>3.0773278438167972</v>
@@ -743,55 +629,55 @@
         <v>0.59190597276374712</v>
       </c>
       <c r="AA3">
-        <v>2.439148292254139</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.2788867943291995</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.66234233364426265</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.4790805175815922</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.78581050335388858</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.9767209162464505</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.8650429113773335</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.80254572713289341</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.4537871478825641</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2.0061282328481553</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.94359775062400253</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.4735050113504351</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.3385444752825162</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.57970670772107125</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>2.4890630110324414</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.87047902473214844</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.74081147736967623</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>1.7340021342212162</v>

--- a/data_output/prism_passive/all_passive_Stiffness at subject max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at subject max ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2525372946383566</v>
+        <v>0.57069473370060453</v>
       </c>
       <c r="C2">
-        <v>3.1947205224515995</v>
+        <v>2.0273389758469595</v>
       </c>
       <c r="D2">
-        <v>1.4285038395013985</v>
+        <v>0.45776957773598148</v>
       </c>
       <c r="E2">
-        <v>1.1255866183585526</v>
+        <v>0.92486361928044003</v>
       </c>
       <c r="F2">
         <v>2.5181816586384524</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.0898347331636469</v>
+        <v>0.91898135611724596</v>
       </c>
       <c r="C3">
-        <v>1.5767777300891996</v>
+        <v>0.94677402519216591</v>
       </c>
       <c r="D3">
-        <v>1.7540717649294792</v>
+        <v>0.67348917426278099</v>
       </c>
       <c r="E3">
-        <v>4.2077608245758995</v>
+        <v>0.88001589369985722</v>
       </c>
       <c r="F3">
         <v>0.74315500645028987</v>

--- a/data_output/prism_passive/all_passive_Stiffness at subject max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at subject max ROM.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2525372946383566</v>
+        <v>2.9921861609128104</v>
       </c>
       <c r="C2">
-        <v>3.1947205224515995</v>
+        <v>0.6791466556503124</v>
       </c>
       <c r="D2">
-        <v>1.4285038395013985</v>
+        <v>2.8514699578225438</v>
       </c>
       <c r="E2">
-        <v>1.1255866183585526</v>
+        <v>0.38689077983612485</v>
       </c>
       <c r="F2">
         <v>2.5181816586384524</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.0898347331636469</v>
+        <v>2.4520921249786043</v>
       </c>
       <c r="C3">
-        <v>1.5767777300891996</v>
+        <v>0.91898135611724596</v>
       </c>
       <c r="D3">
-        <v>1.7540717649294792</v>
+        <v>2.7423587664283593</v>
       </c>
       <c r="E3">
-        <v>4.2077608245758995</v>
+        <v>0.67348917426278099</v>
       </c>
       <c r="F3">
         <v>0.74315500645028987</v>

--- a/data_output/prism_passive/all_passive_Stiffness at subject max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at subject max ROM.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>2.1307230644734441</v>
+      </c>
+      <c r="C2">
+        <v>3.1947204429497695</v>
+      </c>
+      <c r="D2">
+        <v>1.8939497735530848</v>
+      </c>
+      <c r="E2">
+        <v>6.2821791044838653</v>
+      </c>
+      <c r="F2">
+        <v>2.5181816205994849</v>
+      </c>
+      <c r="G2">
+        <v>2.0277478419488162</v>
+      </c>
+      <c r="H2">
+        <v>4.0564184962281473</v>
+      </c>
+      <c r="I2">
+        <v>2.0927606286745029</v>
+      </c>
+      <c r="J2">
+        <v>3.1876179549893378</v>
+      </c>
+      <c r="K2">
+        <v>3.3592759512988648</v>
+      </c>
+      <c r="L2">
+        <v>2.7154451933416333</v>
+      </c>
+      <c r="M2">
+        <v>2.9896247896994677</v>
+      </c>
+      <c r="N2">
         <v>2.9921861609128104</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>0.6791466556503124</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>5.4109906254108893</v>
+      </c>
+      <c r="Q2">
+        <v>1.0978794147038473</v>
+      </c>
+      <c r="R2">
+        <v>2.0273389758469595</v>
+      </c>
+      <c r="S2">
+        <v>5.6472170405992301</v>
+      </c>
+      <c r="T2">
+        <v>1.0855768978607847</v>
+      </c>
+      <c r="U2">
+        <v>2.6095109108434236</v>
+      </c>
+      <c r="V2">
+        <v>2.6187259674801275</v>
+      </c>
+      <c r="W2">
+        <v>1.8564391266371545</v>
+      </c>
+      <c r="X2">
+        <v>3.4189531988818898</v>
+      </c>
+      <c r="Y2">
+        <v>1.7557302080766104</v>
+      </c>
+      <c r="Z2">
+        <v>0.49078514682742658</v>
+      </c>
+      <c r="AA2">
+        <v>2.8285283180222409</v>
+      </c>
+      <c r="AB2">
+        <v>1.5760787652585591</v>
+      </c>
+      <c r="AC2">
+        <v>1.2493533284878429</v>
+      </c>
+      <c r="AD2">
+        <v>5.3640756831054848</v>
+      </c>
+      <c r="AE2">
+        <v>1.4496434890037606</v>
+      </c>
+      <c r="AF2">
+        <v>3.2815444436455086</v>
+      </c>
+      <c r="AG2">
+        <v>2.4177391316943737</v>
+      </c>
+      <c r="AH2">
+        <v>2.1713495028844876</v>
+      </c>
+      <c r="AI2">
+        <v>2.5495864287206373</v>
+      </c>
+      <c r="AJ2">
+        <v>2.8424007341641246</v>
+      </c>
+      <c r="AK2">
+        <v>2.3529093540344173</v>
+      </c>
+      <c r="AL2">
+        <v>1.2357399498517061</v>
+      </c>
+      <c r="AM2">
         <v>2.8514699578225438</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>0.38689077983612485</v>
       </c>
-      <c r="F2">
-        <v>2.5181816586384524</v>
-      </c>
-      <c r="G2">
-        <v>2.0277478818545536</v>
-      </c>
-      <c r="H2">
-        <v>3.7253983028166662</v>
-      </c>
-      <c r="I2">
-        <v>1.699632918137755</v>
-      </c>
-      <c r="J2">
-        <v>3.1376866031178197</v>
-      </c>
-      <c r="K2">
-        <v>2.4258977143221627</v>
-      </c>
-      <c r="L2">
-        <v>1.6177748686011788</v>
-      </c>
-      <c r="M2">
-        <v>2.9896248459763131</v>
-      </c>
-      <c r="N2">
-        <v>2.6076536092174747</v>
-      </c>
-      <c r="O2">
-        <v>0.57069474282981736</v>
-      </c>
-      <c r="P2">
-        <v>5.4109907060924201</v>
-      </c>
-      <c r="Q2">
-        <v>1.0978794297078471</v>
-      </c>
-      <c r="R2">
-        <v>2.027338996450887</v>
-      </c>
-      <c r="S2">
-        <v>4.729003037405711</v>
-      </c>
-      <c r="T2">
-        <v>1.0855769257357668</v>
-      </c>
-      <c r="U2">
-        <v>1.7426712395026109</v>
-      </c>
-      <c r="V2">
-        <v>2.3463925608517879</v>
-      </c>
-      <c r="W2">
-        <v>1.7010985122981834</v>
-      </c>
-      <c r="X2">
-        <v>1.427316538346197</v>
-      </c>
-      <c r="Y2">
-        <v>1.4916178558554221</v>
-      </c>
-      <c r="Z2">
-        <v>0.49078515241315068</v>
-      </c>
-      <c r="AA2">
-        <v>2.6008203728296078</v>
-      </c>
-      <c r="AB2">
-        <v>1.5760788075296734</v>
-      </c>
-      <c r="AC2">
-        <v>1.2362087756286799</v>
-      </c>
-      <c r="AD2">
-        <v>0.72665625482985885</v>
-      </c>
-      <c r="AE2">
-        <v>1.4496435086212753</v>
-      </c>
-      <c r="AF2">
-        <v>3.2815444758098695</v>
-      </c>
-      <c r="AG2">
-        <v>2.064272429751083</v>
-      </c>
-      <c r="AH2">
-        <v>1.3015183823442045</v>
-      </c>
-      <c r="AI2">
-        <v>2.4018607970936436</v>
-      </c>
-      <c r="AJ2">
-        <v>2.749040021805742</v>
-      </c>
-      <c r="AK2">
-        <v>1.1726543283175044</v>
-      </c>
-      <c r="AL2">
-        <v>1.2357399690807214</v>
-      </c>
-      <c r="AM2">
-        <v>2.1591472141748418</v>
-      </c>
-      <c r="AN2">
-        <v>0.45776958299898773</v>
-      </c>
       <c r="AO2">
-        <v>1.8238883502230439</v>
+        <v>1.8238883191350481</v>
       </c>
       <c r="AP2">
-        <v>1.0876412879855806</v>
+        <v>1.0876412891131375</v>
       </c>
       <c r="AQ2">
-        <v>0.92486362957379853</v>
+        <v>0.92486361928044003</v>
       </c>
       <c r="AR2">
-        <v>3.6354134596791008</v>
+        <v>4.4654323992648859</v>
       </c>
       <c r="AS2">
-        <v>1.7226374453912441</v>
+        <v>1.7226374293211442</v>
       </c>
       <c r="AT2">
-        <v>0.54542877790286759</v>
+        <v>0.61921537386690106</v>
       </c>
       <c r="AU2">
-        <v>2.5674764532027998</v>
+        <v>2.0785552572007848</v>
       </c>
       <c r="AV2">
-        <v>0.94235507868921564</v>
+        <v>2.1661067946413599</v>
       </c>
       <c r="AW2">
-        <v>0.78838042272714048</v>
+        <v>1.4450739660431133</v>
       </c>
       <c r="AX2">
-        <v>0.79726756153952139</v>
+        <v>0.87919307065362218</v>
       </c>
       <c r="AY2">
-        <v>0.62928637504086993</v>
+        <v>0.62928636655189285</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>4.0898345934106839</v>
+      </c>
+      <c r="C3">
+        <v>2.7851855369577949</v>
+      </c>
+      <c r="D3">
+        <v>1.7540717614754011</v>
+      </c>
+      <c r="E3">
+        <v>4.2077608276484142</v>
+      </c>
+      <c r="F3">
+        <v>1.4412269040916452</v>
+      </c>
+      <c r="G3">
+        <v>2.5906775362757264</v>
+      </c>
+      <c r="H3">
+        <v>4.4691075869385744</v>
+      </c>
+      <c r="I3">
+        <v>1.0550038518075289</v>
+      </c>
+      <c r="J3">
+        <v>3.1469823679139299</v>
+      </c>
+      <c r="K3">
+        <v>2.145794655253177</v>
+      </c>
+      <c r="L3">
+        <v>2.4981755539930726</v>
+      </c>
+      <c r="M3">
+        <v>3.9854629544917639</v>
+      </c>
+      <c r="N3">
         <v>2.4520921249786043</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>0.91898135611724596</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>6.0561664629235317</v>
+      </c>
+      <c r="Q3">
+        <v>1.5545701196312423</v>
+      </c>
+      <c r="R3">
+        <v>1.9425830064012795</v>
+      </c>
+      <c r="S3">
+        <v>3.3939350928022498</v>
+      </c>
+      <c r="T3">
+        <v>1.4934246376341327</v>
+      </c>
+      <c r="U3">
+        <v>1.6296269699770678</v>
+      </c>
+      <c r="V3">
+        <v>3.8167295126247702</v>
+      </c>
+      <c r="W3">
+        <v>1.8997110505542674</v>
+      </c>
+      <c r="X3">
+        <v>2.1763492217388865</v>
+      </c>
+      <c r="Y3">
+        <v>1.4686671970077305</v>
+      </c>
+      <c r="Z3">
+        <v>0.68036242150931314</v>
+      </c>
+      <c r="AA3">
+        <v>2.5788385778918244</v>
+      </c>
+      <c r="AB3">
+        <v>2.9686034010437474</v>
+      </c>
+      <c r="AC3">
+        <v>0.81742530009067016</v>
+      </c>
+      <c r="AD3">
+        <v>1.6802717058890979</v>
+      </c>
+      <c r="AE3">
+        <v>1.3980002835800067</v>
+      </c>
+      <c r="AF3">
+        <v>2.9217110298696065</v>
+      </c>
+      <c r="AG3">
+        <v>2.1855716509642975</v>
+      </c>
+      <c r="AH3">
+        <v>0.87207060000617864</v>
+      </c>
+      <c r="AI3">
+        <v>1.6499436292503642</v>
+      </c>
+      <c r="AJ3">
+        <v>2.3314778266161214</v>
+      </c>
+      <c r="AK3">
+        <v>1.1381435699446145</v>
+      </c>
+      <c r="AL3">
+        <v>3.2248643542747222</v>
+      </c>
+      <c r="AM3">
         <v>2.7423587664283593</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>0.67348917426278099</v>
       </c>
-      <c r="F3">
-        <v>0.74315500645028987</v>
-      </c>
-      <c r="G3">
-        <v>2.2194654591113463</v>
-      </c>
-      <c r="H3">
-        <v>4.4691076415972431</v>
-      </c>
-      <c r="I3">
-        <v>1.0550038678343707</v>
-      </c>
-      <c r="J3">
-        <v>3.146982378227051</v>
-      </c>
-      <c r="K3">
-        <v>2.145794670360345</v>
-      </c>
-      <c r="L3">
-        <v>2.4981755821981206</v>
-      </c>
-      <c r="M3">
-        <v>1.9218007018042851</v>
-      </c>
-      <c r="N3">
-        <v>2.4520921537329738</v>
-      </c>
-      <c r="O3">
-        <v>0.91898135772866629</v>
-      </c>
-      <c r="P3">
-        <v>5.1249147636225745</v>
-      </c>
-      <c r="Q3">
-        <v>1.5962108404477762</v>
-      </c>
-      <c r="R3">
-        <v>0.94677404070715476</v>
-      </c>
-      <c r="S3">
-        <v>3.3939351235530819</v>
-      </c>
-      <c r="T3">
-        <v>1.5759871759263029</v>
-      </c>
-      <c r="U3">
-        <v>1.6296269771103935</v>
-      </c>
-      <c r="V3">
-        <v>3.8167295241887613</v>
-      </c>
-      <c r="W3">
-        <v>1.8997110607749419</v>
-      </c>
-      <c r="X3">
-        <v>2.1763492685756685</v>
-      </c>
-      <c r="Y3">
-        <v>1.468667204413495</v>
-      </c>
-      <c r="Z3">
-        <v>0.66656287177427309</v>
-      </c>
-      <c r="AA3">
-        <v>2.5788386442463147</v>
-      </c>
-      <c r="AB3">
-        <v>1.5673080307106044</v>
-      </c>
-      <c r="AC3">
-        <v>0.81742531391506312</v>
-      </c>
-      <c r="AD3">
-        <v>1.6802717291834068</v>
-      </c>
-      <c r="AE3">
-        <v>0.8969122684711065</v>
-      </c>
-      <c r="AF3">
-        <v>2.2505471121712954</v>
-      </c>
-      <c r="AG3">
-        <v>2.185571686598629</v>
-      </c>
-      <c r="AH3">
-        <v>0.87207060799831626</v>
-      </c>
-      <c r="AI3">
-        <v>1.6499436527465168</v>
-      </c>
-      <c r="AJ3">
-        <v>2.3314778497685236</v>
-      </c>
-      <c r="AK3">
-        <v>1.1381435904389834</v>
-      </c>
-      <c r="AL3">
-        <v>1.6522844292722874</v>
-      </c>
-      <c r="AM3">
-        <v>2.7423588257750815</v>
-      </c>
-      <c r="AN3">
-        <v>0.67348918262895219</v>
-      </c>
       <c r="AO3">
-        <v>2.8051234328398698</v>
+        <v>3.44244312372183</v>
       </c>
       <c r="AP3">
-        <v>1.0288868286496471</v>
+        <v>1.0185534958610929</v>
       </c>
       <c r="AQ3">
-        <v>0.88001590539080354</v>
+        <v>1.0633454225808727</v>
       </c>
       <c r="AR3">
-        <v>1.9785346499732415</v>
+        <v>1.9785346288450558</v>
       </c>
       <c r="AS3">
-        <v>1.1751088738177669</v>
+        <v>1.326565055356717</v>
       </c>
       <c r="AT3">
-        <v>0.59855225610092733</v>
+        <v>0.59855224734210277</v>
       </c>
       <c r="AU3">
-        <v>1.9481530572563956</v>
+        <v>1.9481530351828058</v>
       </c>
       <c r="AV3">
-        <v>0.97267571996505431</v>
+        <v>0.97267569485830219</v>
       </c>
       <c r="AW3">
-        <v>0.79853856289732339</v>
+        <v>0.79853855187050371</v>
       </c>
       <c r="AX3">
-        <v>1.1979140214637192</v>
+        <v>1.1979140071707008</v>
       </c>
       <c r="AY3">
-        <v>1.457611241626465</v>
+        <v>1.540604966413744</v>
       </c>
     </row>
   </sheetData>
